--- a/legislator/property/output/normal/陳碧涵_2013-12-31_財產申報表_tmp11ae1.xlsx
+++ b/legislator/property/output/normal/陳碧涵_2013-12-31_財產申報表_tmp11ae1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="133">
   <si>
     <t>土地坐落</t>
   </si>
@@ -213,6 +213,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>兆豐金融控股股份有限公 司</t>
   </si>
   <si>
@@ -322,6 +331,9 @@
   </si>
   <si>
     <t>7 34,420</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1386,13 +1398,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1411,13 +1423,22 @@
       <c r="G1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1429,18 +1450,27 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2">
         <v>10200</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -1452,18 +1482,27 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2">
         <v>13020</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -1475,18 +1514,27 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2">
         <v>5890</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -1498,18 +1546,27 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2">
         <v>36300</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -1521,18 +1578,27 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -1544,18 +1610,27 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G7" s="2">
         <v>1510</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
@@ -1567,18 +1642,27 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G8" s="2">
         <v>22440</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
@@ -1590,18 +1674,27 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G9" s="2">
         <v>2370</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -1613,18 +1706,27 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G10" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -1636,18 +1738,27 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G11" s="2">
         <v>150060</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -1659,18 +1770,27 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G12" s="2">
         <v>1690</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
@@ -1682,18 +1802,27 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G13" s="2">
         <v>28870</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
@@ -1705,18 +1834,27 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G14" s="2">
         <v>22160</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>26</v>
@@ -1728,18 +1866,27 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G15" s="2">
         <v>2070</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
@@ -1751,18 +1898,27 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G16" s="2">
         <v>21800</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
@@ -1774,18 +1930,27 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G17" s="2">
         <v>27950</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>26</v>
@@ -1797,18 +1962,27 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G18" s="2">
         <v>52800</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>26</v>
@@ -1820,18 +1994,27 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G19" s="2">
         <v>360</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>26</v>
@@ -1843,18 +2026,27 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G20" s="2">
         <v>22970</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>26</v>
@@ -1866,18 +2058,27 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G21" s="2">
         <v>12890</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>89</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>26</v>
@@ -1889,18 +2090,27 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G22" s="2">
         <v>1220</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -1912,18 +2122,27 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G23" s="2">
         <v>14130</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>26</v>
@@ -1935,18 +2154,27 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G24" s="2">
         <v>11640</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>92</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>27</v>
@@ -1958,18 +2186,27 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G25" s="2">
         <v>1010</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>93</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>27</v>
@@ -1981,18 +2218,27 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G26" s="2">
         <v>940</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>27</v>
@@ -2004,18 +2250,27 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G27" s="2">
         <v>6014820</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>97</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>27</v>
@@ -2027,18 +2282,27 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G28" s="2">
         <v>362720</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>98</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>27</v>
@@ -2050,18 +2314,27 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G29" s="2">
         <v>1920</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>99</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>27</v>
@@ -2073,41 +2346,59 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G30" s="2">
         <v>1220</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G31" s="2">
         <v>33000</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>101</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>26</v>
@@ -2119,18 +2410,27 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G32" s="2">
         <v>12120</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>102</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>27</v>
@@ -2142,21 +2442,30 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G33" s="2">
         <v>900</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>103</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D34" s="2">
         <v>2180</v>
@@ -2165,21 +2474,30 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G34" s="2">
         <v>21800</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D35" s="2">
         <v>2252</v>
@@ -2188,21 +2506,30 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G35" s="2">
         <v>22520</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>105</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D36" s="2">
         <v>3442</v>
@@ -2211,18 +2538,27 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>103</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>106</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>26</v>
@@ -2234,10 +2570,19 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G37" s="2">
         <v>8400</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1752</v>
       </c>
     </row>
   </sheetData>
@@ -2255,16 +2600,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2272,16 +2617,16 @@
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2289,16 +2634,16 @@
         <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2306,16 +2651,16 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2333,22 +2678,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2356,22 +2701,22 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E2" s="2">
         <v>1794131</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2379,22 +2724,22 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2">
         <v>2452470</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2402,22 +2747,22 @@
         <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E4" s="2">
         <v>416072</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2425,22 +2770,22 @@
         <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E5" s="2">
         <v>964388</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳碧涵_2013-12-31_財產申報表_tmp11ae1.xlsx
+++ b/legislator/property/output/normal/陳碧涵_2013-12-31_財產申報表_tmp11ae1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="135">
   <si>
     <t>土地坐落</t>
   </si>
@@ -213,6 +213,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -222,10 +225,10 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>兆豐金融控股股份有限公 司</t>
-  </si>
-  <si>
-    <t>和碩聯合科技股份有限公 司</t>
+    <t>兆豐金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>和碩聯合科技股份有限公司</t>
   </si>
   <si>
     <t>華碩電腦股份有限公司</t>
@@ -243,13 +246,13 @@
     <t>禾伸堂企業股份有限公司</t>
   </si>
   <si>
-    <t>矽品精密工業股份有限公 司</t>
+    <t>矽品精密工業股份有限公司</t>
   </si>
   <si>
     <t>海光企業股份有限公司</t>
   </si>
   <si>
-    <t>鴻海精密工業股份有限公 司</t>
+    <t>鴻海精密工業股份有限公司</t>
   </si>
   <si>
     <t>麗臺科技股份有限公司</t>
@@ -279,13 +282,13 @@
     <t>奇美電子股份有限公司</t>
   </si>
   <si>
-    <t>漢科条統科技股份有限公 司</t>
+    <t>漢科条統科技股份有限公司</t>
   </si>
   <si>
     <t>友達光電股份有限公司</t>
   </si>
   <si>
-    <t>中美矽晶製品股份有限公 司</t>
+    <t>中美矽晶製品股份有限公司</t>
   </si>
   <si>
     <t>中強光電股份有限公司</t>
@@ -306,10 +309,10 @@
     <t>合晶科技股份有限公司</t>
   </si>
   <si>
-    <t>鴻準精密工業股份有限公 司</t>
-  </si>
-  <si>
-    <t>第一金融控股股份有限公 司</t>
+    <t>鴻準精密工業股份有限公司</t>
+  </si>
+  <si>
+    <t>第一金融控股股份有限公司</t>
   </si>
   <si>
     <t>晶磊興業股份有限公司</t>
@@ -321,7 +324,7 @@
     <t>廖〇陽</t>
   </si>
   <si>
-    <t>3，300</t>
+    <t>3300</t>
   </si>
   <si>
     <t>新臺幣</t>
@@ -330,7 +333,10 @@
     <t>新臺幣.</t>
   </si>
   <si>
-    <t>7 34,420</t>
+    <t>734420</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-12-31</t>
@@ -1398,13 +1404,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1432,13 +1438,16 @@
       <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1450,27 +1459,30 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2">
         <v>10200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -1482,27 +1494,30 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2">
         <v>13020</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -1514,27 +1529,30 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2">
         <v>5890</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -1546,27 +1564,30 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G5" s="2">
         <v>36300</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -1578,27 +1599,30 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -1610,27 +1634,30 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G7" s="2">
         <v>1510</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
@@ -1642,27 +1669,30 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G8" s="2">
         <v>22440</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
@@ -1674,27 +1704,30 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G9" s="2">
         <v>2370</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -1706,27 +1739,30 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G10" s="2">
         <v>10000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -1738,27 +1774,30 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G11" s="2">
         <v>150060</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -1770,27 +1809,30 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G12" s="2">
         <v>1690</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
@@ -1802,27 +1844,30 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G13" s="2">
         <v>28870</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
@@ -1834,27 +1879,30 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G14" s="2">
         <v>22160</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>26</v>
@@ -1866,27 +1914,30 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G15" s="2">
         <v>2070</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
@@ -1898,27 +1949,30 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G16" s="2">
         <v>21800</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
@@ -1930,27 +1984,30 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G17" s="2">
         <v>27950</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>26</v>
@@ -1962,27 +2019,30 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G18" s="2">
         <v>52800</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>26</v>
@@ -1994,27 +2054,30 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G19" s="2">
         <v>360</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>26</v>
@@ -2026,27 +2089,30 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G20" s="2">
         <v>22970</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>26</v>
@@ -2058,27 +2124,30 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G21" s="2">
         <v>12890</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>89</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>26</v>
@@ -2090,27 +2159,30 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G22" s="2">
         <v>1220</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2122,27 +2194,30 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G23" s="2">
         <v>14130</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>26</v>
@@ -2154,27 +2229,30 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G24" s="2">
         <v>11640</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>92</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>27</v>
@@ -2186,27 +2264,30 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G25" s="2">
         <v>1010</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>93</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>27</v>
@@ -2218,27 +2299,30 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G26" s="2">
         <v>940</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>27</v>
@@ -2250,27 +2334,30 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G27" s="2">
         <v>6014820</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>97</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>27</v>
@@ -2282,27 +2369,30 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G28" s="2">
         <v>362720</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>98</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>27</v>
@@ -2314,27 +2404,30 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G29" s="2">
         <v>1920</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>99</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>27</v>
@@ -2346,59 +2439,65 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G30" s="2">
         <v>1220</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G31" s="2">
         <v>33000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>101</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>26</v>
@@ -2410,27 +2509,30 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G32" s="2">
         <v>12120</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>102</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>27</v>
@@ -2442,30 +2544,33 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G33" s="2">
         <v>900</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>103</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="2">
         <v>2180</v>
@@ -2474,30 +2579,33 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G34" s="2">
         <v>21800</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" s="2">
         <v>2252</v>
@@ -2506,30 +2614,33 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G35" s="2">
         <v>22520</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>105</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D36" s="2">
         <v>3442</v>
@@ -2538,27 +2649,30 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>106</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>26</v>
@@ -2570,18 +2684,21 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G37" s="2">
         <v>8400</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" s="2">
+        <v>106</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="2">
         <v>1752</v>
       </c>
     </row>
@@ -2600,16 +2717,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2617,16 +2734,16 @@
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2634,16 +2751,16 @@
         <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2651,16 +2768,16 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2678,22 +2795,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2701,22 +2818,22 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2">
         <v>1794131</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2724,22 +2841,22 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2">
         <v>2452470</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2747,22 +2864,22 @@
         <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2">
         <v>416072</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2770,22 +2887,22 @@
         <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E5" s="2">
         <v>964388</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳碧涵_2013-12-31_財產申報表_tmp11ae1.xlsx
+++ b/legislator/property/output/normal/陳碧涵_2013-12-31_財產申報表_tmp11ae1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="140">
   <si>
     <t>土地坐落</t>
   </si>
@@ -216,6 +216,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -225,6 +228,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>兆豐金融控股股份有限公司</t>
   </si>
   <si>
@@ -339,7 +348,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>tmp11ae1</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1404,13 +1419,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1441,13 +1456,22 @@
       <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1459,30 +1483,39 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2">
         <v>10200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -1494,30 +1527,39 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2">
         <v>13020</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -1529,30 +1571,39 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G4" s="2">
         <v>5890</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -1564,30 +1615,39 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G5" s="2">
         <v>36300</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -1599,30 +1659,39 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -1634,30 +1703,39 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G7" s="2">
         <v>1510</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N7" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
@@ -1669,30 +1747,39 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G8" s="2">
         <v>22440</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N8" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
@@ -1704,30 +1791,39 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G9" s="2">
         <v>2370</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -1739,30 +1835,39 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G10" s="2">
         <v>10000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N10" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -1774,30 +1879,39 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G11" s="2">
         <v>150060</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N11" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -1809,30 +1923,39 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G12" s="2">
         <v>1690</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N12" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
@@ -1844,30 +1967,39 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G13" s="2">
         <v>28870</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N13" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
@@ -1879,30 +2011,39 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G14" s="2">
         <v>22160</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N14" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>26</v>
@@ -1914,30 +2055,39 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G15" s="2">
         <v>2070</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N15" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
@@ -1949,30 +2099,39 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G16" s="2">
         <v>21800</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N16" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
@@ -1984,30 +2143,39 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G17" s="2">
         <v>27950</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N17" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>26</v>
@@ -2019,30 +2187,39 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G18" s="2">
         <v>52800</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N18" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>26</v>
@@ -2054,30 +2231,39 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G19" s="2">
         <v>360</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N19" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>26</v>
@@ -2089,30 +2275,39 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G20" s="2">
         <v>22970</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N20" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>26</v>
@@ -2124,30 +2319,39 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G21" s="2">
         <v>12890</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N21" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>89</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>26</v>
@@ -2159,30 +2363,39 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G22" s="2">
         <v>1220</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N22" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2194,30 +2407,39 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G23" s="2">
         <v>14130</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N23" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>26</v>
@@ -2229,30 +2451,39 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G24" s="2">
         <v>11640</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N24" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>92</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>27</v>
@@ -2264,30 +2495,39 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G25" s="2">
         <v>1010</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N25" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>93</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>27</v>
@@ -2299,30 +2539,39 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G26" s="2">
         <v>940</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N26" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>27</v>
@@ -2334,30 +2583,39 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G27" s="2">
         <v>6014820</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N27" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>97</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>27</v>
@@ -2369,30 +2627,39 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G28" s="2">
         <v>362720</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N28" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>98</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>27</v>
@@ -2404,30 +2671,39 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G29" s="2">
         <v>1920</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N29" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>99</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>27</v>
@@ -2439,65 +2715,83 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G30" s="2">
         <v>1220</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N30" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G31" s="2">
         <v>33000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K31" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N31" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>101</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>26</v>
@@ -2509,30 +2803,39 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G32" s="2">
         <v>12120</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K32" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N32" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>102</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>27</v>
@@ -2544,33 +2847,42 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G33" s="2">
         <v>900</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N33" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>103</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D34" s="2">
         <v>2180</v>
@@ -2579,33 +2891,42 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G34" s="2">
         <v>21800</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N34" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D35" s="2">
         <v>2252</v>
@@ -2614,33 +2935,42 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G35" s="2">
         <v>22520</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K35" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N35" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>105</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D36" s="2">
         <v>3442</v>
@@ -2649,30 +2979,39 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K36" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N36" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>106</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>26</v>
@@ -2684,22 +3023,31 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G37" s="2">
         <v>8400</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N37" s="2">
         <v>106</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37" s="2">
-        <v>1752</v>
       </c>
     </row>
   </sheetData>
@@ -2717,16 +3065,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2734,16 +3082,16 @@
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2751,16 +3099,16 @@
         <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2768,16 +3116,16 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2795,22 +3143,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2818,22 +3166,22 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2">
         <v>1794131</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2841,22 +3189,22 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2">
         <v>2452470</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2864,22 +3212,22 @@
         <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E4" s="2">
         <v>416072</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2887,22 +3235,22 @@
         <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E5" s="2">
         <v>964388</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳碧涵_2013-12-31_財產申報表_tmp11ae1.xlsx
+++ b/legislator/property/output/normal/陳碧涵_2013-12-31_財產申報表_tmp11ae1.xlsx
@@ -19,9 +19,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="140">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="145">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺中市北屯區東峰段00580000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃圜市雙龍段03790000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃圜市雙龍段03810000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃圜市雙龍段03750000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃圜市雙龍段03820000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃圜市雙龍段03850000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃圜市雙龍段03860000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃圜市雙龍段03910000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市三座屋段三座屋小段10130000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市三座屋段三座屋小段10130001±也號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市三座屋段三座屋小段10130002地號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市後寮段03620017地號</t>
+  </si>
+  <si>
+    <t>新北市永和區民治段02590000地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區惠民段01110000地號</t>
+  </si>
+  <si>
+    <t>100000分之920</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>36200分之2985</t>
+  </si>
+  <si>
+    <t>5分之1</t>
+  </si>
+  <si>
+    <t>100000分之468</t>
+  </si>
+  <si>
+    <t>陳碧涵</t>
+  </si>
+  <si>
+    <t>廖賢哲</t>
+  </si>
+  <si>
+    <t>94年11月14日</t>
+  </si>
+  <si>
+    <t>95年04月06日</t>
+  </si>
+  <si>
+    <t>95年03月23日</t>
+  </si>
+  <si>
+    <t>84年06月13日</t>
+  </si>
+  <si>
+    <t>76年05月</t>
+  </si>
+  <si>
+    <t>102年03月01曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>tmp11ae1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,139 +186,46 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺中市北屯區東峰段0058-0000 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃圜市雙龍段0379-0000 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃圜市雙龍段0381-0000 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃圜市雙龍段0375-0000 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃圜市雙龍段0382-0000 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃圜市雙龍段0385-0000 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃圜市雙龍段0386-0000 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃圜市雙龍段0391-0000 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市三座屋段三座屋 小段1013-0000地號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市三座屋段三座屋 小段1013-0001 ±也號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市三座屋段三座屋 小段1013-0002地號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市後寮段0362-0017 地號</t>
-  </si>
-  <si>
-    <t>新北市永和區民治段0259-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區惠民段0111-0000 地號</t>
-  </si>
-  <si>
-    <t>100000 分 之920</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>36200分之 2985</t>
-  </si>
-  <si>
-    <t>5分之1</t>
-  </si>
-  <si>
-    <t>100000 分 之468</t>
-  </si>
-  <si>
-    <t>陳碧涵</t>
-  </si>
-  <si>
-    <t>廖賢哲</t>
-  </si>
-  <si>
-    <t>94年11月 14日</t>
-  </si>
-  <si>
-    <t>95年04月 06日</t>
-  </si>
-  <si>
-    <t>95年03月 23日</t>
-  </si>
-  <si>
-    <t>84年06月 13日</t>
-  </si>
-  <si>
-    <t>76年05月</t>
-  </si>
-  <si>
-    <t>102 年 03 月01曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺中市北屯區東峰段03952-000 建號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市三座屋段三座屋 小段00778-000建號</t>
-  </si>
-  <si>
-    <t>桃園縣中壢市後寮段段 08813-000 建號</t>
-  </si>
-  <si>
-    <t>新北市永和區民治段01633-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區惠民段02677-000 建號</t>
+    <t>臺中市北屯區東峰段03952000建號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市三座屋段三座屋小段00778000建號</t>
+  </si>
+  <si>
+    <t>桃園縣中壢市後寮段段08813000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區民治段01633000建號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區惠民段02677000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>84年06月 13曰</t>
-  </si>
-  <si>
-    <t>76年05月 29日</t>
+    <t>84年06月13曰</t>
+  </si>
+  <si>
+    <t>76年05月29日</t>
   </si>
   <si>
     <t>貿賣</t>
   </si>
   <si>
-    <t>696，800(超過 五年）</t>
-  </si>
-  <si>
-    <t>85，275(超過 五年）</t>
-  </si>
-  <si>
-    <t>274，700(超過 五年）</t>
-  </si>
-  <si>
-    <t>147，100(超過 五年）</t>
-  </si>
-  <si>
-    <t>4,950，000(超 過五年）</t>
+    <t>696800(超過五年）</t>
+  </si>
+  <si>
+    <t>85275(超過五年）</t>
+  </si>
+  <si>
+    <t>274700(超過五年）</t>
+  </si>
+  <si>
+    <t>147100(超過五年）</t>
+  </si>
+  <si>
+    <t>4950000(超過五年）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -189,18 +240,12 @@
     <t>國瑞Camry</t>
   </si>
   <si>
-    <t>96年01月 12日</t>
+    <t>96年01月12日</t>
   </si>
   <si>
     <t>賈賣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -213,27 +258,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>兆豐金融控股股份有限公司</t>
   </si>
   <si>
@@ -348,15 +372,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-31</t>
-  </si>
-  <si>
-    <t>tmp11ae1</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -384,13 +399,13 @@
     <t>南山新康祥終身壽險</t>
   </si>
   <si>
-    <t>81.8.24 生效，102.8.止</t>
-  </si>
-  <si>
-    <t>88.11.生效，108.11 止.</t>
-  </si>
-  <si>
-    <t>94.12.25生效，20年期.</t>
+    <t>81.8.24生效102.8.止</t>
+  </si>
+  <si>
+    <t>88.11.生效108.11止.</t>
+  </si>
+  <si>
+    <t>94.12.25生效20年期.</t>
   </si>
   <si>
     <t>種類</t>
@@ -417,28 +432,28 @@
     <t>房屋抵押貸款</t>
   </si>
   <si>
-    <t>台灣銀行(水湳分行） 臺中市北屯區祟德路2段 416號</t>
-  </si>
-  <si>
-    <t>第一銀行(進化分行） 臺中市北屯區進化北路 236、238號3樓之2</t>
-  </si>
-  <si>
-    <t>94年12月 13日</t>
-  </si>
-  <si>
-    <t>94年12月 13曰</t>
-  </si>
-  <si>
-    <t>96年08月 30日</t>
-  </si>
-  <si>
-    <t>89年01月 27日</t>
+    <t>台灣銀行(水湳分行）臺中市北屯區祟德路2段416號</t>
+  </si>
+  <si>
+    <t>第一銀行(進化分行）臺中市北屯區進化北路236238號3樓之2</t>
+  </si>
+  <si>
+    <t>94年12月13日</t>
+  </si>
+  <si>
+    <t>94年12月13曰</t>
+  </si>
+  <si>
+    <t>96年08月30日</t>
+  </si>
+  <si>
+    <t>89年01月27日</t>
   </si>
   <si>
     <t>購屋貸款</t>
   </si>
   <si>
-    <t>個人資金調 度</t>
+    <t>個人資金調度</t>
   </si>
 </sst>
 </file>
@@ -797,13 +812,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,369 +840,684 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>27.36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1.73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>37.65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>11.24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>47.62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>0.17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>28.12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>17.13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>2.5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="2">
         <v>22</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>1.25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>29.84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>23.28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>2287.78</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H15" s="2">
         <v>10050000</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1205,25 +1535,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1231,25 +1561,25 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2">
         <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1257,25 +1587,25 @@
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2">
         <v>59.73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1283,25 +1613,25 @@
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2">
         <v>119.6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1309,25 +1639,25 @@
         <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2">
         <v>62.8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1335,25 +1665,25 @@
         <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2">
         <v>104.79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1371,22 +1701,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1394,22 +1724,22 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1427,43 +1757,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1471,10 +1801,10 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>1020</v>
@@ -1483,28 +1813,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2">
         <v>10200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2">
         <v>1752</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2">
         <v>69</v>
@@ -1515,10 +1845,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>1302</v>
@@ -1527,28 +1857,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2">
         <v>13020</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2">
         <v>1752</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N3" s="2">
         <v>70</v>
@@ -1559,10 +1889,10 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>589</v>
@@ -1571,28 +1901,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G4" s="2">
         <v>5890</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2">
         <v>1752</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N4" s="2">
         <v>71</v>
@@ -1603,10 +1933,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>3630</v>
@@ -1615,28 +1945,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G5" s="2">
         <v>36300</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L5" s="2">
         <v>1752</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N5" s="2">
         <v>72</v>
@@ -1647,10 +1977,10 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
@@ -1659,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L6" s="2">
         <v>1752</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N6" s="2">
         <v>73</v>
@@ -1691,10 +2021,10 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>151</v>
@@ -1703,28 +2033,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G7" s="2">
         <v>1510</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L7" s="2">
         <v>1752</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N7" s="2">
         <v>74</v>
@@ -1735,10 +2065,10 @@
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>2244</v>
@@ -1747,28 +2077,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G8" s="2">
         <v>22440</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L8" s="2">
         <v>1752</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N8" s="2">
         <v>75</v>
@@ -1779,10 +2109,10 @@
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>237</v>
@@ -1791,28 +2121,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G9" s="2">
         <v>2370</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L9" s="2">
         <v>1752</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N9" s="2">
         <v>76</v>
@@ -1823,10 +2153,10 @@
         <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
@@ -1835,28 +2165,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G10" s="2">
         <v>10000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L10" s="2">
         <v>1752</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N10" s="2">
         <v>77</v>
@@ -1867,10 +2197,10 @@
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>15006</v>
@@ -1879,28 +2209,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G11" s="2">
         <v>150060</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L11" s="2">
         <v>1752</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N11" s="2">
         <v>78</v>
@@ -1911,10 +2241,10 @@
         <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>169</v>
@@ -1923,28 +2253,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G12" s="2">
         <v>1690</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L12" s="2">
         <v>1752</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N12" s="2">
         <v>79</v>
@@ -1955,10 +2285,10 @@
         <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>2887</v>
@@ -1967,28 +2297,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G13" s="2">
         <v>28870</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L13" s="2">
         <v>1752</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N13" s="2">
         <v>80</v>
@@ -1999,10 +2329,10 @@
         <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>2216</v>
@@ -2011,28 +2341,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G14" s="2">
         <v>22160</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L14" s="2">
         <v>1752</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N14" s="2">
         <v>81</v>
@@ -2043,10 +2373,10 @@
         <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>207</v>
@@ -2055,28 +2385,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G15" s="2">
         <v>2070</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L15" s="2">
         <v>1752</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N15" s="2">
         <v>82</v>
@@ -2087,10 +2417,10 @@
         <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>2180</v>
@@ -2099,28 +2429,28 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G16" s="2">
         <v>21800</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L16" s="2">
         <v>1752</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N16" s="2">
         <v>83</v>
@@ -2131,10 +2461,10 @@
         <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>2795</v>
@@ -2143,28 +2473,28 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G17" s="2">
         <v>27950</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L17" s="2">
         <v>1752</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N17" s="2">
         <v>84</v>
@@ -2175,10 +2505,10 @@
         <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>5280</v>
@@ -2187,28 +2517,28 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G18" s="2">
         <v>52800</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L18" s="2">
         <v>1752</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N18" s="2">
         <v>85</v>
@@ -2219,10 +2549,10 @@
         <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>36</v>
@@ -2231,28 +2561,28 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G19" s="2">
         <v>360</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L19" s="2">
         <v>1752</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N19" s="2">
         <v>86</v>
@@ -2263,10 +2593,10 @@
         <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>2297</v>
@@ -2275,28 +2605,28 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G20" s="2">
         <v>22970</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L20" s="2">
         <v>1752</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N20" s="2">
         <v>87</v>
@@ -2307,10 +2637,10 @@
         <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>1289</v>
@@ -2319,28 +2649,28 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G21" s="2">
         <v>12890</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L21" s="2">
         <v>1752</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N21" s="2">
         <v>88</v>
@@ -2351,10 +2681,10 @@
         <v>89</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>122</v>
@@ -2363,28 +2693,28 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G22" s="2">
         <v>1220</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L22" s="2">
         <v>1752</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N22" s="2">
         <v>89</v>
@@ -2395,10 +2725,10 @@
         <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>1413</v>
@@ -2407,28 +2737,28 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G23" s="2">
         <v>14130</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L23" s="2">
         <v>1752</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N23" s="2">
         <v>90</v>
@@ -2439,10 +2769,10 @@
         <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>1164</v>
@@ -2451,28 +2781,28 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G24" s="2">
         <v>11640</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L24" s="2">
         <v>1752</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N24" s="2">
         <v>91</v>
@@ -2483,10 +2813,10 @@
         <v>92</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
         <v>101</v>
@@ -2495,28 +2825,28 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G25" s="2">
         <v>1010</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L25" s="2">
         <v>1752</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N25" s="2">
         <v>92</v>
@@ -2527,10 +2857,10 @@
         <v>93</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
         <v>94</v>
@@ -2539,28 +2869,28 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26" s="2">
         <v>940</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L26" s="2">
         <v>1752</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N26" s="2">
         <v>93</v>
@@ -2571,10 +2901,10 @@
         <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>601482</v>
@@ -2583,28 +2913,28 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G27" s="2">
         <v>6014820</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L27" s="2">
         <v>1752</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N27" s="2">
         <v>96</v>
@@ -2615,10 +2945,10 @@
         <v>97</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>36272</v>
@@ -2627,28 +2957,28 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G28" s="2">
         <v>362720</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L28" s="2">
         <v>1752</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N28" s="2">
         <v>97</v>
@@ -2659,10 +2989,10 @@
         <v>98</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2">
         <v>192</v>
@@ -2671,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G29" s="2">
         <v>1920</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L29" s="2">
         <v>1752</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N29" s="2">
         <v>98</v>
@@ -2703,10 +3033,10 @@
         <v>99</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
         <v>122</v>
@@ -2715,28 +3045,28 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G30" s="2">
         <v>1220</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L30" s="2">
         <v>1752</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N30" s="2">
         <v>99</v>
@@ -2747,40 +3077,40 @@
         <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G31" s="2">
         <v>33000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L31" s="2">
         <v>1752</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N31" s="2">
         <v>100</v>
@@ -2791,10 +3121,10 @@
         <v>101</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>1212</v>
@@ -2803,28 +3133,28 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G32" s="2">
         <v>12120</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L32" s="2">
         <v>1752</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N32" s="2">
         <v>101</v>
@@ -2835,10 +3165,10 @@
         <v>102</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
         <v>90</v>
@@ -2847,28 +3177,28 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G33" s="2">
         <v>900</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L33" s="2">
         <v>1752</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N33" s="2">
         <v>102</v>
@@ -2879,10 +3209,10 @@
         <v>103</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D34" s="2">
         <v>2180</v>
@@ -2891,28 +3221,28 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G34" s="2">
         <v>21800</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L34" s="2">
         <v>1752</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N34" s="2">
         <v>103</v>
@@ -2923,10 +3253,10 @@
         <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D35" s="2">
         <v>2252</v>
@@ -2935,28 +3265,28 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G35" s="2">
         <v>22520</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L35" s="2">
         <v>1752</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N35" s="2">
         <v>104</v>
@@ -2967,10 +3297,10 @@
         <v>105</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D36" s="2">
         <v>3442</v>
@@ -2979,28 +3309,28 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L36" s="2">
         <v>1752</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N36" s="2">
         <v>105</v>
@@ -3011,10 +3341,10 @@
         <v>106</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2">
         <v>840</v>
@@ -3023,28 +3353,28 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G37" s="2">
         <v>8400</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L37" s="2">
         <v>1752</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N37" s="2">
         <v>106</v>
@@ -3065,16 +3395,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3082,16 +3412,16 @@
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3099,16 +3429,16 @@
         <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3116,16 +3446,16 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3143,22 +3473,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3166,22 +3496,22 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2">
         <v>1794131</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3189,22 +3519,22 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E3" s="2">
         <v>2452470</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3212,22 +3542,22 @@
         <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E4" s="2">
         <v>416072</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3235,22 +3565,22 @@
         <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E5" s="2">
         <v>964388</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳碧涵_2013-12-31_財產申報表_tmp11ae1.xlsx
+++ b/legislator/property/output/normal/陳碧涵_2013-12-31_財產申報表_tmp11ae1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="123">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺中市北屯區東峰段00580000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>桃圜縣桃圜市雙龍段03790000地號</t>
@@ -105,9 +108,6 @@
     <t>臺中市西屯區惠民段01110000地號</t>
   </si>
   <si>
-    <t>100000分之920</t>
-  </si>
-  <si>
     <t>4分之1</t>
   </si>
   <si>
@@ -126,67 +126,52 @@
     <t>廖賢哲</t>
   </si>
   <si>
+    <t>95年04月06日</t>
+  </si>
+  <si>
+    <t>95年03月23日</t>
+  </si>
+  <si>
+    <t>84年06月13日</t>
+  </si>
+  <si>
+    <t>76年05月</t>
+  </si>
+  <si>
+    <t>102年03月01曰</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>tmp11ae1</t>
+  </si>
+  <si>
+    <t>臺中市北屯區東峰段03952000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>94年11月14日</t>
   </si>
   <si>
-    <t>95年04月06日</t>
-  </si>
-  <si>
-    <t>95年03月23日</t>
-  </si>
-  <si>
-    <t>84年06月13日</t>
-  </si>
-  <si>
-    <t>76年05月</t>
-  </si>
-  <si>
-    <t>102年03月01曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-31</t>
-  </si>
-  <si>
-    <t>tmp11ae1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺中市北屯區東峰段03952000建號</t>
+    <t>696800(超過五年）</t>
   </si>
   <si>
     <t>桃圜縣中壢市三座屋段三座屋小段00778000建號</t>
@@ -201,9 +186,6 @@
     <t>臺中市西屯區惠民段02677000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>84年06月13曰</t>
   </si>
   <si>
@@ -213,9 +195,6 @@
     <t>貿賣</t>
   </si>
   <si>
-    <t>696800(超過五年）</t>
-  </si>
-  <si>
     <t>85275(超過五年）</t>
   </si>
   <si>
@@ -228,15 +207,6 @@
     <t>4950000(超過五年）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>國瑞Camry</t>
   </si>
   <si>
@@ -255,12 +225,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>兆豐金融控股股份有限公司</t>
-  </si>
-  <si>
     <t>和碩聯合科技股份有限公司</t>
   </si>
   <si>
@@ -372,75 +336,48 @@
     <t>stock</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>南山金福利21年期養老壽險</t>
+  </si>
+  <si>
+    <t>81.8.24生效102.8.止</t>
+  </si>
+  <si>
     <t>台銀人壽股份有限公司</t>
   </si>
   <si>
-    <t>南山金福利21年期養老壽險</t>
-  </si>
-  <si>
     <t>鴻福還本終身壽險</t>
   </si>
   <si>
     <t>南山新康祥終身壽險</t>
   </si>
   <si>
-    <t>81.8.24生效102.8.止</t>
-  </si>
-  <si>
     <t>88.11.生效108.11止.</t>
   </si>
   <si>
     <t>94.12.25生效20年期.</t>
   </si>
   <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>公教購屋貸款</t>
   </si>
   <si>
+    <t>台灣銀行(水湳分行）臺中市北屯區祟德路2段416號</t>
+  </si>
+  <si>
+    <t>94年12月13日</t>
+  </si>
+  <si>
+    <t>購屋貸款</t>
+  </si>
+  <si>
     <t>房屋抵押貸款</t>
   </si>
   <si>
-    <t>台灣銀行(水湳分行）臺中市北屯區祟德路2段416號</t>
-  </si>
-  <si>
     <t>第一銀行(進化分行）臺中市北屯區進化北路236238號3樓之2</t>
   </si>
   <si>
-    <t>94年12月13日</t>
-  </si>
-  <si>
     <t>94年12月13曰</t>
   </si>
   <si>
@@ -448,9 +385,6 @@
   </si>
   <si>
     <t>89年01月27日</t>
-  </si>
-  <si>
-    <t>購屋貸款</t>
   </si>
   <si>
     <t>個人資金調度</t>
@@ -812,13 +746,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,19 +795,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>27.36</v>
+        <v>1.73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
@@ -882,19 +822,19 @@
         <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>33</v>
@@ -903,21 +843,27 @@
         <v>1752</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.4325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1.73</v>
+        <v>37.65</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -926,22 +872,22 @@
         <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>33</v>
@@ -950,21 +896,27 @@
         <v>1752</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>9.4125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>37.65</v>
+        <v>11.24</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -973,22 +925,22 @@
         <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>33</v>
@@ -997,21 +949,27 @@
         <v>1752</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>11.24</v>
+        <v>47.62</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -1020,22 +978,22 @@
         <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>33</v>
@@ -1044,21 +1002,27 @@
         <v>1752</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>11.905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>47.62</v>
+        <v>0.17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
@@ -1067,22 +1031,22 @@
         <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>33</v>
@@ -1091,21 +1055,27 @@
         <v>1752</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.0425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>0.17</v>
+        <v>28.12</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
@@ -1114,22 +1084,22 @@
         <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>33</v>
@@ -1138,21 +1108,27 @@
         <v>1752</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O7" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>28.12</v>
+        <v>17.13</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
@@ -1161,22 +1137,22 @@
         <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>33</v>
@@ -1185,21 +1161,27 @@
         <v>1752</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O8" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>4.2825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>17.13</v>
+        <v>2.5</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
@@ -1211,19 +1193,19 @@
         <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>33</v>
@@ -1232,21 +1214,27 @@
         <v>1752</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O9" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>2.5</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -1255,22 +1243,22 @@
         <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>33</v>
@@ -1279,21 +1267,27 @@
         <v>1752</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O10" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>14</v>
+        <v>1.25</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
@@ -1302,22 +1296,22 @@
         <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>33</v>
@@ -1326,24 +1320,30 @@
         <v>1752</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O11" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>1.25</v>
+        <v>29.84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>33</v>
@@ -1352,19 +1352,19 @@
         <v>37</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>33</v>
@@ -1373,27 +1373,33 @@
         <v>1752</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O12" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.0824585635359116</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>2.4605635359116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>29.84</v>
+        <v>23.28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>38</v>
@@ -1402,16 +1408,16 @@
         <v>41</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>33</v>
@@ -1420,24 +1426,30 @@
         <v>1752</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O13" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>4.656</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>23.28</v>
+        <v>2287.78</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>34</v>
@@ -1448,17 +1460,17 @@
       <c r="G14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="2">
+        <v>10050000</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>33</v>
@@ -1467,57 +1479,16 @@
         <v>1752</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O14" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2287.78</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="2">
-        <v>10050000</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1752</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" s="2">
-        <v>28</v>
+      <c r="P14" s="2">
+        <v>0.00468</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>10.7068104</v>
       </c>
     </row>
   </sheetData>
@@ -1527,7 +1498,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1535,155 +1506,129 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1">
+        <v>184</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2">
-        <v>184</v>
+        <v>59.73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2">
-        <v>59.73</v>
+        <v>119.6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2">
-        <v>119.6</v>
+        <v>62.8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2">
-        <v>62.8</v>
+        <v>104.79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="2">
-        <v>104.79</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1693,53 +1638,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1998</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1998</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1671,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1763,16 +1685,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1798,34 +1720,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2">
-        <v>1020</v>
+        <v>1302</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2">
-        <v>10200</v>
+        <v>13020</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>33</v>
@@ -1834,42 +1756,42 @@
         <v>1752</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="2">
-        <v>1302</v>
+        <v>589</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2">
-        <v>13020</v>
+        <v>5890</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>33</v>
@@ -1878,42 +1800,42 @@
         <v>1752</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="2">
-        <v>589</v>
+        <v>3630</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2">
-        <v>5890</v>
+        <v>36300</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>33</v>
@@ -1922,42 +1844,42 @@
         <v>1752</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="2">
-        <v>3630</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2">
-        <v>36300</v>
+        <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>33</v>
@@ -1966,42 +1888,42 @@
         <v>1752</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="2">
-        <v>1000</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2">
-        <v>10000</v>
+        <v>1510</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>33</v>
@@ -2010,42 +1932,42 @@
         <v>1752</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N6" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="2">
-        <v>151</v>
+        <v>2244</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G7" s="2">
-        <v>1510</v>
+        <v>22440</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>33</v>
@@ -2054,42 +1976,42 @@
         <v>1752</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N7" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="2">
-        <v>2244</v>
+        <v>237</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G8" s="2">
-        <v>22440</v>
+        <v>2370</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>33</v>
@@ -2098,42 +2020,42 @@
         <v>1752</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N8" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="2">
-        <v>237</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G9" s="2">
-        <v>2370</v>
+        <v>10000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>33</v>
@@ -2142,42 +2064,42 @@
         <v>1752</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N9" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="2">
-        <v>1000</v>
+        <v>15006</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G10" s="2">
-        <v>10000</v>
+        <v>150060</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>33</v>
@@ -2186,42 +2108,42 @@
         <v>1752</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="2">
-        <v>15006</v>
+        <v>169</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G11" s="2">
-        <v>150060</v>
+        <v>1690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>33</v>
@@ -2230,42 +2152,42 @@
         <v>1752</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N11" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="2">
-        <v>169</v>
+        <v>2887</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G12" s="2">
-        <v>1690</v>
+        <v>28870</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>33</v>
@@ -2274,42 +2196,42 @@
         <v>1752</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N12" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="2">
-        <v>2887</v>
+        <v>2216</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G13" s="2">
-        <v>28870</v>
+        <v>22160</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>33</v>
@@ -2318,42 +2240,42 @@
         <v>1752</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N13" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="2">
-        <v>2216</v>
+        <v>207</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G14" s="2">
-        <v>22160</v>
+        <v>2070</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>33</v>
@@ -2362,42 +2284,42 @@
         <v>1752</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N14" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="2">
-        <v>207</v>
+        <v>2180</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G15" s="2">
-        <v>2070</v>
+        <v>21800</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>33</v>
@@ -2406,42 +2328,42 @@
         <v>1752</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="2">
-        <v>2180</v>
+        <v>2795</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G16" s="2">
-        <v>21800</v>
+        <v>27950</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>33</v>
@@ -2450,42 +2372,42 @@
         <v>1752</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N16" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="2">
-        <v>2795</v>
+        <v>5280</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G17" s="2">
-        <v>27950</v>
+        <v>52800</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>33</v>
@@ -2494,42 +2416,42 @@
         <v>1752</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N17" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="2">
-        <v>5280</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="G18" s="2">
-        <v>52800</v>
+        <v>360</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>33</v>
@@ -2538,42 +2460,42 @@
         <v>1752</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N18" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="2">
-        <v>36</v>
+        <v>2297</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G19" s="2">
-        <v>360</v>
+        <v>22970</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>33</v>
@@ -2582,42 +2504,42 @@
         <v>1752</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N19" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="2">
-        <v>2297</v>
+        <v>1289</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G20" s="2">
-        <v>22970</v>
+        <v>12890</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>33</v>
@@ -2626,42 +2548,42 @@
         <v>1752</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N20" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="2">
-        <v>1289</v>
+        <v>122</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G21" s="2">
-        <v>12890</v>
+        <v>1220</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>33</v>
@@ -2670,42 +2592,42 @@
         <v>1752</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N21" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="2">
-        <v>122</v>
+        <v>1413</v>
       </c>
       <c r="E22" s="2">
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G22" s="2">
-        <v>1220</v>
+        <v>14130</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>33</v>
@@ -2714,42 +2636,42 @@
         <v>1752</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N22" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="2">
-        <v>1413</v>
+        <v>1164</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G23" s="2">
-        <v>14130</v>
+        <v>11640</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>33</v>
@@ -2758,42 +2680,42 @@
         <v>1752</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N23" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2">
-        <v>1164</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2">
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G24" s="2">
-        <v>11640</v>
+        <v>1010</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>33</v>
@@ -2802,42 +2724,42 @@
         <v>1752</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N24" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G25" s="2">
-        <v>1010</v>
+        <v>940</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>33</v>
@@ -2846,42 +2768,42 @@
         <v>1752</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N25" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="2">
-        <v>94</v>
+        <v>601482</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G26" s="2">
-        <v>940</v>
+        <v>6014820</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>33</v>
@@ -2890,42 +2812,42 @@
         <v>1752</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N26" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="2">
-        <v>601482</v>
+        <v>36272</v>
       </c>
       <c r="E27" s="2">
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G27" s="2">
-        <v>6014820</v>
+        <v>362720</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>33</v>
@@ -2934,42 +2856,42 @@
         <v>1752</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N27" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="2">
-        <v>36272</v>
+        <v>192</v>
       </c>
       <c r="E28" s="2">
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G28" s="2">
-        <v>362720</v>
+        <v>1920</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>33</v>
@@ -2978,42 +2900,42 @@
         <v>1752</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N28" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="2">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G29" s="2">
-        <v>1920</v>
+        <v>1220</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>33</v>
@@ -3022,42 +2944,42 @@
         <v>1752</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N29" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="2">
-        <v>122</v>
+      <c r="D30" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E30" s="2">
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G30" s="2">
-        <v>1220</v>
+        <v>33000</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>33</v>
@@ -3066,42 +2988,42 @@
         <v>1752</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N30" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1212</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G31" s="2">
-        <v>33000</v>
+        <v>12120</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>33</v>
@@ -3110,42 +3032,42 @@
         <v>1752</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N31" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2">
-        <v>1212</v>
+        <v>90</v>
       </c>
       <c r="E32" s="2">
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G32" s="2">
-        <v>12120</v>
+        <v>900</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>33</v>
@@ -3154,42 +3076,42 @@
         <v>1752</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N32" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D33" s="2">
-        <v>90</v>
+        <v>2180</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G33" s="2">
-        <v>900</v>
+        <v>21800</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>33</v>
@@ -3198,42 +3120,42 @@
         <v>1752</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N33" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D34" s="2">
-        <v>2180</v>
+        <v>2252</v>
       </c>
       <c r="E34" s="2">
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G34" s="2">
-        <v>21800</v>
+        <v>22520</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>33</v>
@@ -3242,42 +3164,42 @@
         <v>1752</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N34" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D35" s="2">
-        <v>2252</v>
+        <v>3442</v>
       </c>
       <c r="E35" s="2">
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G35" s="2">
-        <v>22520</v>
+        <v>101</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>33</v>
@@ -3286,42 +3208,42 @@
         <v>1752</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N35" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
-        <v>3442</v>
+        <v>840</v>
       </c>
       <c r="E36" s="2">
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
+      </c>
+      <c r="G36" s="2">
+        <v>8400</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>33</v>
@@ -3330,53 +3252,9 @@
         <v>1752</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N36" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="1">
-        <v>106</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="2">
-        <v>840</v>
-      </c>
-      <c r="E37" s="2">
-        <v>10</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G37" s="2">
-        <v>8400</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L37" s="2">
-        <v>1752</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N37" s="2">
         <v>106</v>
       </c>
     </row>
@@ -3387,7 +3265,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3395,67 +3273,50 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>134</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3465,7 +3326,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3473,114 +3334,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1794131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2">
-        <v>1794131</v>
+        <v>2452470</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2">
-        <v>2452470</v>
+        <v>416072</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E4" s="2">
-        <v>416072</v>
+        <v>964388</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>147</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="2">
-        <v>964388</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳碧涵_2013-12-31_財產申報表_tmp11ae1.xlsx
+++ b/legislator/property/output/normal/陳碧涵_2013-12-31_財產申報表_tmp11ae1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="126">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺中市北屯區東峰段00580000地號</t>
+  </si>
+  <si>
     <t>桃圜縣桃圜市雙龍段03790000地號</t>
   </si>
   <si>
@@ -108,6 +111,9 @@
     <t>臺中市西屯區惠民段01110000地號</t>
   </si>
   <si>
+    <t>100000分之920</t>
+  </si>
+  <si>
     <t>4分之1</t>
   </si>
   <si>
@@ -126,6 +132,9 @@
     <t>廖賢哲</t>
   </si>
   <si>
+    <t>94年11月14日</t>
+  </si>
+  <si>
     <t>95年04月06日</t>
   </si>
   <si>
@@ -141,12 +150,12 @@
     <t>102年03月01曰</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>繼承</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
@@ -165,36 +174,33 @@
     <t>臺中市北屯區東峰段03952000建號</t>
   </si>
   <si>
+    <t>桃圜縣中壢市三座屋段三座屋小段00778000建號</t>
+  </si>
+  <si>
+    <t>桃園縣中壢市後寮段段08813000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區民治段01633000建號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區惠民段02677000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>94年11月14日</t>
+    <t>84年06月13曰</t>
+  </si>
+  <si>
+    <t>76年05月29日</t>
+  </si>
+  <si>
+    <t>貿賣</t>
   </si>
   <si>
     <t>696800(超過五年）</t>
   </si>
   <si>
-    <t>桃圜縣中壢市三座屋段三座屋小段00778000建號</t>
-  </si>
-  <si>
-    <t>桃園縣中壢市後寮段段08813000建號</t>
-  </si>
-  <si>
-    <t>新北市永和區民治段01633000建號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區惠民段02677000建號</t>
-  </si>
-  <si>
-    <t>84年06月13曰</t>
-  </si>
-  <si>
-    <t>76年05月29日</t>
-  </si>
-  <si>
-    <t>貿賣</t>
-  </si>
-  <si>
     <t>85275(超過五年）</t>
   </si>
   <si>
@@ -223,6 +229,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>兆豐金融控股股份有限公司</t>
   </si>
   <si>
     <t>和碩聯合科技股份有限公司</t>
@@ -746,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -804,690 +813,743 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1.73</v>
+        <v>27.36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M2" s="2">
         <v>1752</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>0.25</v>
+        <v>0.0092</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.4325</v>
+        <v>0.251712</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>37.65</v>
+        <v>1.73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M3" s="2">
         <v>1752</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>0.25</v>
       </c>
       <c r="Q3" s="2">
-        <v>9.4125</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>11.24</v>
+        <v>37.65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M4" s="2">
         <v>1752</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
         <v>0.25</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.81</v>
+        <v>9.4125</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>47.62</v>
+        <v>11.24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M5" s="2">
         <v>1752</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
         <v>0.25</v>
       </c>
       <c r="Q5" s="2">
-        <v>11.905</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>0.17</v>
+        <v>47.62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M6" s="2">
         <v>1752</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
         <v>0.25</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.0425</v>
+        <v>11.905</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>28.12</v>
+        <v>0.17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M7" s="2">
         <v>1752</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="2">
         <v>0.25</v>
       </c>
       <c r="Q7" s="2">
-        <v>7.03</v>
+        <v>0.0425</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>17.13</v>
+        <v>28.12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M8" s="2">
         <v>1752</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8" s="2">
         <v>0.25</v>
       </c>
       <c r="Q8" s="2">
-        <v>4.2825</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>2.5</v>
+        <v>17.13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M9" s="2">
         <v>1752</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="2">
         <v>0.25</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.625</v>
+        <v>4.2825</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>14</v>
+        <v>2.5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M10" s="2">
         <v>1752</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="2">
         <v>0.25</v>
       </c>
       <c r="Q10" s="2">
-        <v>3.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>1.25</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M11" s="2">
         <v>1752</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" s="2">
         <v>0.25</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.3125</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>29.84</v>
+        <v>1.25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M12" s="2">
         <v>1752</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P12" s="2">
-        <v>0.0824585635359116</v>
+        <v>0.25</v>
       </c>
       <c r="Q12" s="2">
-        <v>2.4605635359116</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>23.28</v>
+        <v>29.84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M13" s="2">
         <v>1752</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P13" s="2">
-        <v>0.2</v>
+        <v>0.0824585635359116</v>
       </c>
       <c r="Q13" s="2">
-        <v>4.656</v>
+        <v>2.4605635359116</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
+        <v>23.28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="2">
+        <v>25</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>4.656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2">
         <v>2287.78</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="2">
         <v>10050000</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1752</v>
-      </c>
-      <c r="N14" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="2">
+      <c r="J15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="2">
         <v>28</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P15" s="2">
         <v>0.00468</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q15" s="2">
         <v>10.7068104</v>
       </c>
     </row>
@@ -1498,137 +1560,325 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2">
         <v>184</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="2">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>34</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>59.73</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="2">
+        <v>34</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>14.9325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>119.6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>36</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2">
-        <v>62.8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>56</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="2">
+        <v>35</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>119.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2">
+        <v>62.8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="2">
+        <v>36</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
         <v>37</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>104.79</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>61</v>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="2">
+        <v>37</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>104.79</v>
       </c>
     </row>
   </sheetData>
@@ -1638,30 +1888,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1">
         <v>1998</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
+      <c r="C2" s="2">
+        <v>1998</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1671,7 +1944,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1685,13 +1958,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1720,1541 +1993,1585 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
-        <v>1302</v>
+        <v>1020</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2">
-        <v>13020</v>
+        <v>10200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2">
         <v>1752</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2">
-        <v>589</v>
+        <v>1302</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G3" s="2">
-        <v>5890</v>
+        <v>13020</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L3" s="2">
         <v>1752</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N3" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
-        <v>3630</v>
+        <v>589</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2">
-        <v>36300</v>
+        <v>5890</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L4" s="2">
         <v>1752</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N4" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
-        <v>1000</v>
+        <v>3630</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G5" s="2">
-        <v>10000</v>
+        <v>36300</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L5" s="2">
         <v>1752</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N5" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
-        <v>151</v>
+        <v>1000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G6" s="2">
-        <v>1510</v>
+        <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L6" s="2">
         <v>1752</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N6" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
+        <v>74</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
-        <v>2244</v>
+        <v>151</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G7" s="2">
-        <v>22440</v>
+        <v>1510</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="2">
         <v>1752</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N7" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
+        <v>75</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2">
-        <v>237</v>
+        <v>2244</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G8" s="2">
-        <v>2370</v>
+        <v>22440</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L8" s="2">
         <v>1752</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N8" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
+        <v>76</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
-        <v>1000</v>
+        <v>237</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G9" s="2">
-        <v>10000</v>
+        <v>2370</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L9" s="2">
         <v>1752</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N9" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
+        <v>77</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2">
-        <v>15006</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G10" s="2">
-        <v>150060</v>
+        <v>10000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L10" s="2">
         <v>1752</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N10" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
+        <v>78</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2">
-        <v>169</v>
+        <v>15006</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G11" s="2">
-        <v>1690</v>
+        <v>150060</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L11" s="2">
         <v>1752</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N11" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
+        <v>79</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
-        <v>2887</v>
+        <v>169</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G12" s="2">
-        <v>28870</v>
+        <v>1690</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L12" s="2">
         <v>1752</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N12" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
+        <v>80</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2">
-        <v>2216</v>
+        <v>2887</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G13" s="2">
-        <v>22160</v>
+        <v>28870</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L13" s="2">
         <v>1752</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N13" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
+        <v>81</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
-        <v>207</v>
+        <v>2216</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G14" s="2">
-        <v>2070</v>
+        <v>22160</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L14" s="2">
         <v>1752</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N14" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
+        <v>82</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2">
-        <v>2180</v>
+        <v>207</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G15" s="2">
-        <v>21800</v>
+        <v>2070</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L15" s="2">
         <v>1752</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N15" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
+        <v>83</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2">
-        <v>2795</v>
+        <v>2180</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G16" s="2">
-        <v>27950</v>
+        <v>21800</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L16" s="2">
         <v>1752</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N16" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
+        <v>84</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
-        <v>5280</v>
+        <v>2795</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G17" s="2">
-        <v>52800</v>
+        <v>27950</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L17" s="2">
         <v>1752</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N17" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
+        <v>85</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
-        <v>36</v>
+        <v>5280</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G18" s="2">
-        <v>360</v>
+        <v>52800</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L18" s="2">
         <v>1752</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N18" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
+        <v>86</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2">
-        <v>2297</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G19" s="2">
-        <v>22970</v>
+        <v>360</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L19" s="2">
         <v>1752</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N19" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
+        <v>87</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2">
-        <v>1289</v>
+        <v>2297</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G20" s="2">
-        <v>12890</v>
+        <v>22970</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L20" s="2">
         <v>1752</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N20" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
+        <v>88</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2">
-        <v>122</v>
+        <v>1289</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G21" s="2">
-        <v>1220</v>
+        <v>12890</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L21" s="2">
         <v>1752</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N21" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
+        <v>89</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2">
-        <v>1413</v>
+        <v>122</v>
       </c>
       <c r="E22" s="2">
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G22" s="2">
-        <v>14130</v>
+        <v>1220</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L22" s="2">
         <v>1752</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N22" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
+        <v>90</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2">
-        <v>1164</v>
+        <v>1413</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G23" s="2">
-        <v>11640</v>
+        <v>14130</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L23" s="2">
         <v>1752</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N23" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
+        <v>91</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2">
-        <v>101</v>
+        <v>1164</v>
       </c>
       <c r="E24" s="2">
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G24" s="2">
-        <v>1010</v>
+        <v>11640</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L24" s="2">
         <v>1752</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N24" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
+        <v>92</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D25" s="2">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G25" s="2">
-        <v>940</v>
+        <v>1010</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L25" s="2">
         <v>1752</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N25" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D26" s="2">
-        <v>601482</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G26" s="2">
-        <v>6014820</v>
+        <v>940</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L26" s="2">
         <v>1752</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N26" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2">
-        <v>36272</v>
+        <v>601482</v>
       </c>
       <c r="E27" s="2">
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G27" s="2">
-        <v>362720</v>
+        <v>6014820</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L27" s="2">
         <v>1752</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N27" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2">
-        <v>192</v>
+        <v>36272</v>
       </c>
       <c r="E28" s="2">
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G28" s="2">
-        <v>1920</v>
+        <v>362720</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L28" s="2">
         <v>1752</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N28" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G29" s="2">
-        <v>1220</v>
+        <v>1920</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L29" s="2">
         <v>1752</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N29" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>100</v>
+        <v>36</v>
+      </c>
+      <c r="D30" s="2">
+        <v>122</v>
       </c>
       <c r="E30" s="2">
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G30" s="2">
-        <v>33000</v>
+        <v>1220</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L30" s="2">
         <v>1752</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N30" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1212</v>
+        <v>36</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G31" s="2">
-        <v>12120</v>
+        <v>33000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L31" s="2">
         <v>1752</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N31" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2">
-        <v>90</v>
+        <v>1212</v>
       </c>
       <c r="E32" s="2">
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="2">
+        <v>12120</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N32" s="2">
         <v>101</v>
-      </c>
-      <c r="G32" s="2">
-        <v>900</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L32" s="2">
-        <v>1752</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N32" s="2">
-        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D33" s="2">
-        <v>2180</v>
+        <v>90</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G33" s="2">
-        <v>21800</v>
+        <v>900</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L33" s="2">
         <v>1752</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N33" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
+        <v>103</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2180</v>
+      </c>
+      <c r="E34" s="2">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="2">
-        <v>2252</v>
-      </c>
-      <c r="E34" s="2">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="G34" s="2">
-        <v>22520</v>
+        <v>21800</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L34" s="2">
         <v>1752</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N34" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D35" s="2">
-        <v>3442</v>
+        <v>2252</v>
       </c>
       <c r="E35" s="2">
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="G35" s="2">
+        <v>22520</v>
       </c>
       <c r="H35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N35" s="2">
         <v>104</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L35" s="2">
-        <v>1752</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N35" s="2">
-        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
+        <v>105</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3442</v>
+      </c>
+      <c r="E36" s="2">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="H36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N36" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1">
+        <v>106</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="2">
         <v>840</v>
       </c>
-      <c r="E36" s="2">
-        <v>10</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="E37" s="2">
+        <v>10</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="2">
         <v>8400</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L36" s="2">
-        <v>1752</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N36" s="2">
+      <c r="H37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N37" s="2">
         <v>106</v>
       </c>
     </row>
@@ -3265,7 +3582,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3273,21 +3590,21 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>108</v>
@@ -3296,27 +3613,44 @@
         <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
+        <v>132</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>134</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>112</v>
+      <c r="B4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3326,7 +3660,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3334,91 +3668,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1">
         <v>1794131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E2" s="2">
-        <v>2452470</v>
+        <v>1794131</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E3" s="2">
-        <v>416072</v>
+        <v>2452470</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
+        <v>146</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="2">
+        <v>416072</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>147</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="2">
         <v>964388</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>122</v>
+      <c r="F5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳碧涵_2013-12-31_財產申報表_tmp11ae1.xlsx
+++ b/legislator/property/output/normal/陳碧涵_2013-12-31_財產申報表_tmp11ae1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="127">
   <si>
     <t>name</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>4950000(超過五年）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>國瑞Camry</t>
@@ -1888,38 +1891,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1">
-        <v>1998</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1928,13 +1952,34 @@
         <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="2">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1958,13 +2003,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1996,7 +2041,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
@@ -2008,13 +2053,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2">
         <v>10200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>47</v>
@@ -2040,7 +2085,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
@@ -2052,13 +2097,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2">
         <v>13020</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>47</v>
@@ -2084,7 +2129,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>35</v>
@@ -2096,13 +2141,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G4" s="2">
         <v>5890</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>47</v>
@@ -2128,7 +2173,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>35</v>
@@ -2140,13 +2185,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G5" s="2">
         <v>36300</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>47</v>
@@ -2172,7 +2217,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>35</v>
@@ -2184,13 +2229,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>47</v>
@@ -2216,7 +2261,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
@@ -2228,13 +2273,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G7" s="2">
         <v>1510</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>47</v>
@@ -2260,7 +2305,7 @@
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>35</v>
@@ -2272,13 +2317,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G8" s="2">
         <v>22440</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>47</v>
@@ -2304,7 +2349,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>35</v>
@@ -2316,13 +2361,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G9" s="2">
         <v>2370</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>47</v>
@@ -2348,7 +2393,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>35</v>
@@ -2360,13 +2405,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G10" s="2">
         <v>10000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>47</v>
@@ -2392,7 +2437,7 @@
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>35</v>
@@ -2404,13 +2449,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G11" s="2">
         <v>150060</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>47</v>
@@ -2436,7 +2481,7 @@
         <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>35</v>
@@ -2448,13 +2493,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G12" s="2">
         <v>1690</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>47</v>
@@ -2480,7 +2525,7 @@
         <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>35</v>
@@ -2492,13 +2537,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G13" s="2">
         <v>28870</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>47</v>
@@ -2524,7 +2569,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>35</v>
@@ -2536,13 +2581,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G14" s="2">
         <v>22160</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>47</v>
@@ -2568,7 +2613,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>35</v>
@@ -2580,13 +2625,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G15" s="2">
         <v>2070</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>47</v>
@@ -2612,7 +2657,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>35</v>
@@ -2624,13 +2669,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G16" s="2">
         <v>21800</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>47</v>
@@ -2656,7 +2701,7 @@
         <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>35</v>
@@ -2668,13 +2713,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G17" s="2">
         <v>27950</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>47</v>
@@ -2700,7 +2745,7 @@
         <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>35</v>
@@ -2712,13 +2757,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G18" s="2">
         <v>52800</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>47</v>
@@ -2744,7 +2789,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
@@ -2756,13 +2801,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G19" s="2">
         <v>360</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>47</v>
@@ -2788,7 +2833,7 @@
         <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>35</v>
@@ -2800,13 +2845,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G20" s="2">
         <v>22970</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>47</v>
@@ -2832,7 +2877,7 @@
         <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>35</v>
@@ -2844,13 +2889,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G21" s="2">
         <v>12890</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>47</v>
@@ -2876,7 +2921,7 @@
         <v>89</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>35</v>
@@ -2888,13 +2933,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G22" s="2">
         <v>1220</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>47</v>
@@ -2920,7 +2965,7 @@
         <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>35</v>
@@ -2932,13 +2977,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G23" s="2">
         <v>14130</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>47</v>
@@ -2964,7 +3009,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>35</v>
@@ -2976,13 +3021,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G24" s="2">
         <v>11640</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>47</v>
@@ -3008,7 +3053,7 @@
         <v>92</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>36</v>
@@ -3020,13 +3065,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G25" s="2">
         <v>1010</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>47</v>
@@ -3052,7 +3097,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>36</v>
@@ -3064,13 +3109,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G26" s="2">
         <v>940</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>47</v>
@@ -3096,7 +3141,7 @@
         <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>36</v>
@@ -3108,13 +3153,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G27" s="2">
         <v>6014820</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>47</v>
@@ -3140,7 +3185,7 @@
         <v>97</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>36</v>
@@ -3152,13 +3197,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G28" s="2">
         <v>362720</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>47</v>
@@ -3184,7 +3229,7 @@
         <v>98</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>36</v>
@@ -3196,13 +3241,13 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G29" s="2">
         <v>1920</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>47</v>
@@ -3228,7 +3273,7 @@
         <v>99</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>36</v>
@@ -3240,13 +3285,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G30" s="2">
         <v>1220</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>47</v>
@@ -3272,25 +3317,25 @@
         <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G31" s="2">
         <v>33000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>47</v>
@@ -3316,7 +3361,7 @@
         <v>101</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>35</v>
@@ -3328,13 +3373,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G32" s="2">
         <v>12120</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>47</v>
@@ -3360,7 +3405,7 @@
         <v>102</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>36</v>
@@ -3372,13 +3417,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G33" s="2">
         <v>900</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>47</v>
@@ -3404,10 +3449,10 @@
         <v>103</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="2">
         <v>2180</v>
@@ -3416,13 +3461,13 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G34" s="2">
         <v>21800</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>47</v>
@@ -3448,10 +3493,10 @@
         <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="2">
         <v>2252</v>
@@ -3460,13 +3505,13 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G35" s="2">
         <v>22520</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>47</v>
@@ -3492,10 +3537,10 @@
         <v>105</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" s="2">
         <v>3442</v>
@@ -3504,13 +3549,13 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>47</v>
@@ -3536,7 +3581,7 @@
         <v>106</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>35</v>
@@ -3548,13 +3593,13 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G37" s="2">
         <v>8400</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>47</v>
@@ -3590,16 +3635,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3607,16 +3652,16 @@
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3624,16 +3669,16 @@
         <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3641,16 +3686,16 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3668,22 +3713,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1">
         <v>1794131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3691,22 +3736,22 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2">
         <v>1794131</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3714,22 +3759,22 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2">
         <v>2452470</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3737,22 +3782,22 @@
         <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2">
         <v>416072</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3760,22 +3805,22 @@
         <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2">
         <v>964388</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳碧涵_2013-12-31_財產申報表_tmp11ae1.xlsx
+++ b/legislator/property/output/normal/陳碧涵_2013-12-31_財產申報表_tmp11ae1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="129">
   <si>
     <t>name</t>
   </si>
@@ -213,6 +213,9 @@
     <t>4950000(超過五年）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -223,6 +226,9 @@
   </si>
   <si>
     <t>賈賣</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>quantity</t>
@@ -1645,7 +1651,7 @@
         <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>47</v>
@@ -1698,7 +1704,7 @@
         <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>47</v>
@@ -1751,7 +1757,7 @@
         <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>47</v>
@@ -1804,7 +1810,7 @@
         <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>47</v>
@@ -1857,7 +1863,7 @@
         <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>47</v>
@@ -1902,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1943,7 +1949,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1952,16 +1958,16 @@
         <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>47</v>
@@ -2003,13 +2009,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2041,7 +2047,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
@@ -2053,13 +2059,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G2" s="2">
         <v>10200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>47</v>
@@ -2085,7 +2091,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
@@ -2097,13 +2103,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2">
         <v>13020</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>47</v>
@@ -2129,7 +2135,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>35</v>
@@ -2141,13 +2147,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G4" s="2">
         <v>5890</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>47</v>
@@ -2173,7 +2179,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>35</v>
@@ -2185,13 +2191,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G5" s="2">
         <v>36300</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>47</v>
@@ -2217,7 +2223,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>35</v>
@@ -2229,13 +2235,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>47</v>
@@ -2261,7 +2267,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
@@ -2273,13 +2279,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G7" s="2">
         <v>1510</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>47</v>
@@ -2305,7 +2311,7 @@
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>35</v>
@@ -2317,13 +2323,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G8" s="2">
         <v>22440</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>47</v>
@@ -2349,7 +2355,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>35</v>
@@ -2361,13 +2367,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G9" s="2">
         <v>2370</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>47</v>
@@ -2393,7 +2399,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>35</v>
@@ -2405,13 +2411,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G10" s="2">
         <v>10000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>47</v>
@@ -2437,7 +2443,7 @@
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>35</v>
@@ -2449,13 +2455,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G11" s="2">
         <v>150060</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>47</v>
@@ -2481,7 +2487,7 @@
         <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>35</v>
@@ -2493,13 +2499,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G12" s="2">
         <v>1690</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>47</v>
@@ -2525,7 +2531,7 @@
         <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>35</v>
@@ -2537,13 +2543,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G13" s="2">
         <v>28870</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>47</v>
@@ -2569,7 +2575,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>35</v>
@@ -2581,13 +2587,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G14" s="2">
         <v>22160</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>47</v>
@@ -2613,7 +2619,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>35</v>
@@ -2625,13 +2631,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G15" s="2">
         <v>2070</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>47</v>
@@ -2657,7 +2663,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>35</v>
@@ -2669,13 +2675,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="2">
         <v>21800</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>47</v>
@@ -2701,7 +2707,7 @@
         <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>35</v>
@@ -2713,13 +2719,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" s="2">
         <v>27950</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>47</v>
@@ -2745,7 +2751,7 @@
         <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>35</v>
@@ -2757,13 +2763,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G18" s="2">
         <v>52800</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>47</v>
@@ -2789,7 +2795,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
@@ -2801,13 +2807,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="2">
         <v>360</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>47</v>
@@ -2833,7 +2839,7 @@
         <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>35</v>
@@ -2845,13 +2851,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G20" s="2">
         <v>22970</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>47</v>
@@ -2877,7 +2883,7 @@
         <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>35</v>
@@ -2889,13 +2895,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G21" s="2">
         <v>12890</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>47</v>
@@ -2921,7 +2927,7 @@
         <v>89</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>35</v>
@@ -2933,13 +2939,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G22" s="2">
         <v>1220</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>47</v>
@@ -2965,7 +2971,7 @@
         <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>35</v>
@@ -2977,13 +2983,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G23" s="2">
         <v>14130</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>47</v>
@@ -3009,7 +3015,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>35</v>
@@ -3021,13 +3027,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G24" s="2">
         <v>11640</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>47</v>
@@ -3053,7 +3059,7 @@
         <v>92</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>36</v>
@@ -3065,13 +3071,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G25" s="2">
         <v>1010</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>47</v>
@@ -3097,7 +3103,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>36</v>
@@ -3109,13 +3115,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G26" s="2">
         <v>940</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>47</v>
@@ -3141,7 +3147,7 @@
         <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>36</v>
@@ -3153,13 +3159,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G27" s="2">
         <v>6014820</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>47</v>
@@ -3185,7 +3191,7 @@
         <v>97</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>36</v>
@@ -3197,13 +3203,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G28" s="2">
         <v>362720</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>47</v>
@@ -3229,7 +3235,7 @@
         <v>98</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>36</v>
@@ -3241,13 +3247,13 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G29" s="2">
         <v>1920</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>47</v>
@@ -3273,7 +3279,7 @@
         <v>99</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>36</v>
@@ -3285,13 +3291,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G30" s="2">
         <v>1220</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>47</v>
@@ -3317,25 +3323,25 @@
         <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G31" s="2">
         <v>33000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>47</v>
@@ -3361,7 +3367,7 @@
         <v>101</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>35</v>
@@ -3373,13 +3379,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G32" s="2">
         <v>12120</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>47</v>
@@ -3405,7 +3411,7 @@
         <v>102</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>36</v>
@@ -3417,13 +3423,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G33" s="2">
         <v>900</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>47</v>
@@ -3449,10 +3455,10 @@
         <v>103</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="2">
         <v>2180</v>
@@ -3461,13 +3467,13 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G34" s="2">
         <v>21800</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>47</v>
@@ -3493,10 +3499,10 @@
         <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="2">
         <v>2252</v>
@@ -3505,13 +3511,13 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G35" s="2">
         <v>22520</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>47</v>
@@ -3537,10 +3543,10 @@
         <v>105</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D36" s="2">
         <v>3442</v>
@@ -3549,13 +3555,13 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>47</v>
@@ -3581,7 +3587,7 @@
         <v>106</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>35</v>
@@ -3593,13 +3599,13 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G37" s="2">
         <v>8400</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>47</v>
@@ -3635,16 +3641,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3652,16 +3658,16 @@
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3669,16 +3675,16 @@
         <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3686,16 +3692,16 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3713,22 +3719,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1">
         <v>1794131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3736,22 +3742,22 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2">
         <v>1794131</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3759,22 +3765,22 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2">
         <v>2452470</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3782,22 +3788,22 @@
         <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2">
         <v>416072</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3805,22 +3811,22 @@
         <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E5" s="2">
         <v>964388</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳碧涵_2013-12-31_財產申報表_tmp11ae1.xlsx
+++ b/legislator/property/output/normal/陳碧涵_2013-12-31_財產申報表_tmp11ae1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="131">
   <si>
     <t>name</t>
   </si>
@@ -354,58 +354,64 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>台銀人壽股份有限公司</t>
+  </si>
+  <si>
     <t>南山金福利21年期養老壽險</t>
   </si>
   <si>
-    <t>81.8.24生效102.8.止</t>
-  </si>
-  <si>
-    <t>台銀人壽股份有限公司</t>
-  </si>
-  <si>
     <t>鴻福還本終身壽險</t>
   </si>
   <si>
     <t>南山新康祥終身壽險</t>
   </si>
   <si>
-    <t>88.11.生效108.11止.</t>
-  </si>
-  <si>
-    <t>94.12.25生效20年期.</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>公教購屋貸款</t>
   </si>
   <si>
+    <t>房屋抵押貸款</t>
+  </si>
+  <si>
     <t>台灣銀行(水湳分行）臺中市北屯區祟德路2段416號</t>
   </si>
   <si>
+    <t>第一銀行(進化分行）臺中市北屯區進化北路236238號3樓之2</t>
+  </si>
+  <si>
     <t>94年12月13日</t>
   </si>
   <si>
+    <t>94年12月13曰</t>
+  </si>
+  <si>
+    <t>96年08月30日</t>
+  </si>
+  <si>
+    <t>89年01月27日</t>
+  </si>
+  <si>
     <t>購屋貸款</t>
   </si>
   <si>
-    <t>房屋抵押貸款</t>
-  </si>
-  <si>
-    <t>第一銀行(進化分行）臺中市北屯區進化北路236238號3樓之2</t>
-  </si>
-  <si>
-    <t>94年12月13曰</t>
-  </si>
-  <si>
-    <t>96年08月30日</t>
-  </si>
-  <si>
-    <t>89年01月27日</t>
-  </si>
-  <si>
     <t>個人資金調度</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -3633,49 +3639,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>117</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1752</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>115</v>
@@ -3686,13 +3728,31 @@
       <c r="E3" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1752</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>116</v>
@@ -3701,7 +3761,25 @@
         <v>105</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1752</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="2">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3711,67 +3789,109 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1794131</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E2" s="2">
         <v>1794131</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>128</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2">
         <v>2452470</v>
@@ -3780,21 +3900,42 @@
         <v>125</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>129</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E4" s="2">
         <v>416072</v>
@@ -3803,21 +3944,42 @@
         <v>126</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>129</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E5" s="2">
         <v>964388</v>
@@ -3826,7 +3988,28 @@
         <v>127</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="2">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
